--- a/tekgrads/contacts_2.xlsx
+++ b/tekgrads/contacts_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\OneDrive\Desktop\tekgrads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajes\OneDrive\Documents\GitHub\images\tekgrads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1A93D-54E8-4502-9CAA-32CD0BE767FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42688E45-934D-4E31-989D-00192546AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,18 +699,18 @@
   <dimension ref="A1:BU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -931,7 +931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
